--- a/04_Projektstrukturplan/Budgetplan_Kostenschätzung.xlsx
+++ b/04_Projektstrukturplan/Budgetplan_Kostenschätzung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\GitHub\04_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64555FA8-BB3E-4435-94BB-E137A113E30E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A347909-C4A8-49B5-8DFD-7873D8A9E2AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tagungsbudget" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="171">
   <si>
     <t>Geschäftsbudget</t>
   </si>
@@ -536,6 +536,15 @@
   </si>
   <si>
     <t>Aktueller Budgetstand zur Kostenschätzung:</t>
+  </si>
+  <si>
+    <t>Werbung</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Flyer, Online Zeitung, Bernexpo Website, Soziale Medien</t>
   </si>
 </sst>
 </file>
@@ -1261,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5D5B4-92F5-47F2-9D53-D480AFA53649}">
-  <dimension ref="A1:U198"/>
+  <dimension ref="A1:U206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1321,7 +1330,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="67">
-        <f>SUM(G28)</f>
+        <f>SUM(G29)</f>
         <v>91159.700000000012</v>
       </c>
       <c r="B5" s="19"/>
@@ -1576,7 +1585,7 @@
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25">
-        <f>G156</f>
+        <f>G157</f>
         <v>57514</v>
       </c>
       <c r="E23" s="25"/>
@@ -1595,7 +1604,7 @@
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25">
-        <f>G180</f>
+        <f>G181</f>
         <v>134175</v>
       </c>
       <c r="E24" s="25"/>
@@ -1614,7 +1623,7 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="25">
-        <f>G190</f>
+        <f>G191</f>
         <v>135000</v>
       </c>
       <c r="E25" s="25"/>
@@ -1633,7 +1642,7 @@
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25">
-        <f>G197</f>
+        <f>G198</f>
         <v>4050</v>
       </c>
       <c r="E26" s="25"/>
@@ -1644,57 +1653,64 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="25">
+        <v>20000</v>
+      </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <v>20000</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="25">
+        <f>SUM(B27-D27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="25">
-        <f>SUM(B23:B26)</f>
-        <v>421898.7</v>
-      </c>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="25">
-        <f>SUM(D23:D26)</f>
-        <v>330739</v>
-      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="25">
-        <f>SUM(B28-D28)</f>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="25">
+        <f>SUM(B23:B27)</f>
+        <v>441898.7</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25">
+        <f>SUM(D23:D27)</f>
+        <v>350739</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25">
+        <f>SUM(B29-D29)</f>
         <v>91159.700000000012</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="39" t="s">
         <v>109</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="38" t="s">
-        <v>66</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -1703,311 +1719,301 @@
       <c r="F31" s="23"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D33" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E33" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F33" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23">
         <v>2630</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D34" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E34" s="24">
         <v>1</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F34" s="23">
         <v>3</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G34" s="25">
         <v>7890</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="25"/>
-    </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="28">
+      <c r="E36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="28">
         <v>7890</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="25"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G38" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23">
-        <v>9</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="24">
-        <v>140</v>
-      </c>
-      <c r="F38" s="23">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25">
-        <v>1260</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="24">
+        <v>140</v>
+      </c>
+      <c r="F39" s="23">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23">
+        <v>4</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="24">
         <v>59</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F40" s="23">
         <v>3</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G40" s="25">
         <v>708</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31"/>
-    </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="34">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E42" s="33"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="34"/>
+      <c r="G42" s="34">
+        <v>1968</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E44" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G44" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23">
+      <c r="B45" s="23"/>
+      <c r="C45" s="23">
         <v>190</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E45" s="24">
         <v>40</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F45" s="23">
         <v>1</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G45" s="25">
         <v>7600</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="25"/>
-    </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26" t="s">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="28">
+      <c r="E47" s="27"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="28">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="25"/>
-    </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20" t="s">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E49" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F49" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A49" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23">
-        <v>2</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="24">
-        <v>361</v>
-      </c>
-      <c r="F49" s="23">
-        <v>1</v>
-      </c>
-      <c r="G49" s="25">
-        <v>722</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23">
@@ -2017,93 +2023,93 @@
         <v>30</v>
       </c>
       <c r="E50" s="24">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="F50" s="23">
         <v>1</v>
       </c>
       <c r="G50" s="25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23">
+        <v>2</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="24">
+        <v>159</v>
+      </c>
+      <c r="F51" s="23">
+        <v>1</v>
+      </c>
+      <c r="G51" s="25">
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="31"/>
-    </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="34">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E53" s="33"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="34"/>
+      <c r="G53" s="34">
+        <v>1040</v>
+      </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="32"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="34"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F55" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G55" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23">
-        <v>1</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="24">
-        <v>300</v>
-      </c>
-      <c r="F55" s="23">
-        <v>1</v>
-      </c>
-      <c r="G55" s="25">
-        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23">
@@ -2112,19 +2118,19 @@
       <c r="D56" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="24" t="s">
-        <v>34</v>
+      <c r="E56" s="24">
+        <v>300</v>
       </c>
       <c r="F56" s="23">
         <v>1</v>
       </c>
       <c r="G56" s="25">
-        <v>2500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23">
@@ -2140,12 +2146,12 @@
         <v>1</v>
       </c>
       <c r="G57" s="25">
-        <v>100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23">
@@ -2161,12 +2167,12 @@
         <v>1</v>
       </c>
       <c r="G58" s="25">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23">
@@ -2175,33 +2181,19 @@
       <c r="D59" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="24">
-        <v>595</v>
+      <c r="E59" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="F59" s="23">
         <v>1</v>
       </c>
       <c r="G59" s="25">
-        <v>595</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23">
@@ -2210,241 +2202,255 @@
       <c r="D60" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>34</v>
+      <c r="E60" s="24">
+        <v>595</v>
       </c>
       <c r="F60" s="23">
         <v>1</v>
       </c>
       <c r="G60" s="25">
+        <v>595</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23">
+        <v>1</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="23">
+        <v>1</v>
+      </c>
+      <c r="G61" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="25"/>
-    </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="25"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="28">
+      <c r="E63" s="27"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="28">
         <v>5195</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="25"/>
-    </row>
-    <row r="64" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="26" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="28">
+      <c r="E65" s="27"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="28">
         <v>23693</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A65" s="32"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-    </row>
-    <row r="66" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="38" t="s">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+    </row>
+    <row r="67" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="25"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="20" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20" t="s">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F68" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G67" s="22" t="s">
+      <c r="G68" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A68" s="23" t="s">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23">
+      <c r="B69" s="23"/>
+      <c r="C69" s="23">
         <v>3</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D69" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E69" s="24">
         <v>5940</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F69" s="23">
         <v>1</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G69" s="25">
         <v>5940</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A69" s="23"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="25"/>
-    </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26" t="s">
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="28">
+      <c r="E71" s="27"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="28">
         <v>5940</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="25"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D73" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E73" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F72" s="20" t="s">
+      <c r="F73" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G73" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A73" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23">
-        <v>9</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="24">
-        <v>98</v>
-      </c>
-      <c r="F73" s="23">
-        <v>3</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
@@ -2462,15 +2468,15 @@
         <v>98</v>
       </c>
       <c r="F74" s="23">
-        <v>2</v>
-      </c>
-      <c r="G74" s="25">
-        <v>1764</v>
+        <v>3</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="23" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="23">
@@ -2480,43 +2486,43 @@
         <v>29</v>
       </c>
       <c r="E75" s="24">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F75" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="25">
-        <v>1098</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="23">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E76" s="24">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F76" s="23">
-        <v>3</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G76" s="25">
+        <v>1098</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="23">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>29</v>
@@ -2527,98 +2533,98 @@
       <c r="F77" s="23">
         <v>3</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23">
+        <v>6</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="24">
+        <v>59</v>
+      </c>
+      <c r="F78" s="23">
+        <v>3</v>
+      </c>
+      <c r="G78" s="25">
         <v>1062</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="31"/>
-    </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A79" s="32" t="s">
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="31"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="34">
-        <v>3924</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A80" s="32"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E80" s="33"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="34"/>
+      <c r="G80" s="34">
+        <v>3924</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="32"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D82" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="E82" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F81" s="20" t="s">
+      <c r="F82" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="22" t="s">
+      <c r="G82" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23">
-        <v>1</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="24">
-        <v>396</v>
-      </c>
-      <c r="F82" s="23">
-        <v>1</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="23" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23">
-        <v>750</v>
+        <v>1</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="24" t="s">
-        <v>37</v>
+      <c r="E83" s="24">
+        <v>396</v>
       </c>
       <c r="F83" s="23">
         <v>1</v>
@@ -2629,17 +2635,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="23" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="B84" s="23"/>
       <c r="C84" s="23">
-        <v>1</v>
+        <v>750</v>
       </c>
       <c r="D84" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E84" s="24">
-        <v>150</v>
+      <c r="E84" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F84" s="23">
         <v>1</v>
@@ -2649,83 +2655,83 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="23"/>
+      <c r="A85" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="25"/>
+      <c r="C85" s="23">
+        <v>1</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="24">
+        <v>150</v>
+      </c>
+      <c r="F85" s="23">
+        <v>1</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26" t="s">
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="28">
+      <c r="E87" s="27"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="23"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="25"/>
-    </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20" t="s">
+      <c r="B89" s="20"/>
+      <c r="C89" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D89" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="E89" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F89" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G89" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23">
-        <v>1</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F89" s="23">
-        <v>2.5</v>
-      </c>
-      <c r="G89" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23">
@@ -2746,7 +2752,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B91" s="23"/>
       <c r="C91" s="23">
@@ -2767,7 +2773,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="23">
@@ -2788,7 +2794,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="23">
@@ -2809,7 +2815,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="23">
@@ -2818,40 +2824,40 @@
       <c r="D94" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="24">
-        <v>1000</v>
+      <c r="E94" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F94" s="23">
         <v>2.5</v>
       </c>
-      <c r="G94" s="25">
-        <v>2500</v>
+      <c r="G94" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="24" t="s">
-        <v>37</v>
+      <c r="E95" s="24">
+        <v>1000</v>
       </c>
       <c r="F95" s="23">
         <v>2.5</v>
       </c>
-      <c r="G95" s="25" t="s">
-        <v>37</v>
+      <c r="G95" s="25">
+        <v>2500</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="23" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="23">
@@ -2860,61 +2866,61 @@
       <c r="D96" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E96" s="24">
-        <v>700</v>
+      <c r="E96" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="F96" s="23">
         <v>2.5</v>
       </c>
-      <c r="G96" s="25">
-        <v>3500</v>
+      <c r="G96" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="23" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E97" s="24">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F97" s="23">
         <v>2.5</v>
       </c>
       <c r="G97" s="25">
-        <v>1500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E98" s="24">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F98" s="23">
         <v>2.5</v>
       </c>
       <c r="G98" s="25">
-        <v>625</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="23">
@@ -2924,43 +2930,43 @@
         <v>30</v>
       </c>
       <c r="E99" s="24">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="F99" s="23">
         <v>2.5</v>
       </c>
       <c r="G99" s="25">
-        <v>150</v>
+        <v>625</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E100" s="24">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="F100" s="23">
         <v>2.5</v>
       </c>
       <c r="G100" s="25">
-        <v>1200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B101" s="23"/>
       <c r="C101" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="23" t="s">
         <v>30</v>
@@ -2972,311 +2978,311 @@
         <v>2.5</v>
       </c>
       <c r="G101" s="25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23">
+        <v>2</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="24">
+        <v>160</v>
+      </c>
+      <c r="F102" s="23">
+        <v>2.5</v>
+      </c>
+      <c r="G102" s="25">
         <v>800</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="31"/>
-    </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="29"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="31"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="34">
-        <v>10275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A104" s="32"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E104" s="33"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="34"/>
+      <c r="G104" s="34">
+        <v>10275</v>
+      </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A105" s="26" t="s">
+      <c r="A105" s="32"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="34"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A106" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26" t="s">
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="28">
+      <c r="E106" s="27"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="28">
         <v>32019</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-    </row>
-    <row r="107" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A107" s="38" t="s">
-        <v>89</v>
-      </c>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A107" s="23"/>
       <c r="B107" s="23"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
+      <c r="E107" s="23"/>
       <c r="F107" s="23"/>
-      <c r="G107" s="25"/>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A108" s="20" t="s">
+      <c r="G107" s="23"/>
+    </row>
+    <row r="108" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A108" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A109" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20" t="s">
+      <c r="B109" s="20"/>
+      <c r="C109" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D109" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="21" t="s">
+      <c r="E109" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F109" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G108" s="22" t="s">
+      <c r="G109" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A110" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23">
+      <c r="B110" s="23"/>
+      <c r="C110" s="23">
         <v>3</v>
       </c>
-      <c r="D109" s="23" t="s">
+      <c r="D110" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E109" s="24">
+      <c r="E110" s="24">
         <v>520</v>
       </c>
-      <c r="F109" s="23">
+      <c r="F110" s="23">
         <v>1</v>
       </c>
-      <c r="G109" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A110" s="23"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="25"/>
-    </row>
-    <row r="111" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="26" t="s">
+      <c r="G110" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="25"/>
+    </row>
+    <row r="112" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26" t="s">
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="28">
+      <c r="E112" s="27"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="28">
         <v>0</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A112" s="23"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-    </row>
-    <row r="113" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A113" s="38" t="s">
-        <v>92</v>
-      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A113" s="23"/>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="23"/>
-      <c r="G113" s="25"/>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A114" s="20" t="s">
+      <c r="G113" s="23"/>
+    </row>
+    <row r="114" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A114" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A115" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B114" s="20"/>
-      <c r="C114" s="20" t="s">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="D115" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E114" s="21" t="s">
+      <c r="E115" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F114" s="20" t="s">
+      <c r="F115" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G114" s="22" t="s">
+      <c r="G115" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A115" s="23" t="s">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A116" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23">
+      <c r="B116" s="23"/>
+      <c r="C116" s="23">
         <v>3</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D116" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E115" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F115" s="23">
+      <c r="E116" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F116" s="23">
         <v>1</v>
       </c>
-      <c r="G115" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="25"/>
+      <c r="G116" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A117" s="26" t="s">
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="25"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26" t="s">
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="28">
+      <c r="E118" s="27"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="28">
         <v>0</v>
       </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-      <c r="T117" s="6"/>
-      <c r="U117" s="6"/>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A118" s="23"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="25"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="23"/>
+      <c r="B119" s="23"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="25"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A120" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="20"/>
-      <c r="C119" s="20" t="s">
+      <c r="B120" s="20"/>
+      <c r="C120" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="D120" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E120" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F119" s="20" t="s">
+      <c r="F120" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G119" s="22" t="s">
+      <c r="G120" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A120" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23">
-        <v>9</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E120" s="24">
-        <v>51</v>
-      </c>
-      <c r="F120" s="23">
-        <v>2</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="23" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="23">
@@ -3286,103 +3292,103 @@
         <v>29</v>
       </c>
       <c r="E121" s="24">
+        <v>51</v>
+      </c>
+      <c r="F121" s="23">
+        <v>2</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A122" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23">
+        <v>9</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="24">
         <v>63</v>
       </c>
-      <c r="F121" s="23">
+      <c r="F122" s="23">
         <v>1</v>
       </c>
-      <c r="G121" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="31"/>
+      <c r="G122" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="29"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="31"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A124" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="33"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A124" s="32"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E124" s="33"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="34"/>
+      <c r="G124" s="34">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="32"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="34"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A126" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20" t="s">
+      <c r="B126" s="20"/>
+      <c r="C126" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="20" t="s">
+      <c r="D126" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E126" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F126" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G126" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A126" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23">
-        <v>4</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E126" s="24">
-        <v>70</v>
-      </c>
-      <c r="F126" s="23">
-        <v>1</v>
-      </c>
-      <c r="G126" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D127" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E127" s="24">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F127" s="23">
         <v>1</v>
@@ -3393,11 +3399,11 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="23" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="23">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D128" s="23" t="s">
         <v>30</v>
@@ -3408,230 +3414,230 @@
       <c r="F128" s="23">
         <v>1</v>
       </c>
-      <c r="G128" s="25">
+      <c r="G128" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A129" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23">
+        <v>14</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="24">
+        <v>43</v>
+      </c>
+      <c r="F129" s="23">
+        <v>1</v>
+      </c>
+      <c r="G129" s="25">
         <v>602</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A129" s="23"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="25"/>
-    </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="25"/>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A131" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26" t="s">
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="26"/>
-      <c r="G130" s="28">
+      <c r="E131" s="27"/>
+      <c r="F131" s="26"/>
+      <c r="G131" s="28">
         <v>602</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A131" s="32"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="34"/>
-    </row>
-    <row r="132" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="26" t="s">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A132" s="32"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="34"/>
+    </row>
+    <row r="133" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26" t="s">
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="28">
+      <c r="E133" s="27"/>
+      <c r="F133" s="26"/>
+      <c r="G133" s="28">
         <v>602</v>
       </c>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A133" s="23"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="25"/>
-    </row>
-    <row r="134" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A134" s="38" t="s">
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A134" s="23"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="25"/>
+    </row>
+    <row r="135" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A135" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="25"/>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A135" s="20" t="s">
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A136" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B135" s="20"/>
-      <c r="C135" s="20" t="s">
+      <c r="B136" s="20"/>
+      <c r="C136" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D135" s="20" t="s">
+      <c r="D136" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E135" s="21" t="s">
+      <c r="E136" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F135" s="20" t="s">
+      <c r="F136" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G135" s="22" t="s">
+      <c r="G136" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A136" s="23" t="s">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A137" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23">
+      <c r="B137" s="23"/>
+      <c r="C137" s="23">
         <v>3</v>
       </c>
-      <c r="D136" s="23" t="s">
+      <c r="D137" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E136" s="24">
+      <c r="E137" s="24">
         <v>1200</v>
       </c>
-      <c r="F136" s="23">
+      <c r="F137" s="23">
         <v>1</v>
       </c>
-      <c r="G136" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A137" s="23"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="25"/>
+      <c r="G137" s="25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A138" s="26" t="s">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="25"/>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A139" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26" t="s">
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="28">
+      <c r="E139" s="27"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="28">
         <v>0</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-      <c r="T138" s="6"/>
-      <c r="U138" s="6"/>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A139" s="23"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="25"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="25"/>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A141" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20" t="s">
+      <c r="B141" s="20"/>
+      <c r="C141" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D140" s="20" t="s">
+      <c r="D141" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="E141" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F140" s="20" t="s">
+      <c r="F141" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G140" s="22" t="s">
+      <c r="G141" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A141" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23">
-        <v>19</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E141" s="24">
-        <v>40</v>
-      </c>
-      <c r="F141" s="23">
-        <v>1</v>
-      </c>
-      <c r="G141" s="25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" s="23">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>30</v>
@@ -3642,109 +3648,115 @@
       <c r="F142" s="23">
         <v>1</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A143" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23">
+        <v>30</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="24">
+        <v>40</v>
+      </c>
+      <c r="F143" s="23">
+        <v>1</v>
+      </c>
+      <c r="G143" s="25">
         <v>1200</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A143" s="23"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="23"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="25"/>
-    </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A144" s="26" t="s">
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="25"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26" t="s">
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="28">
+      <c r="E145" s="27"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="28">
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="32"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="34"/>
-    </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="26" t="s">
+      <c r="A146" s="32"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="34"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26" t="s">
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="26"/>
-      <c r="G146" s="28">
+      <c r="E147" s="27"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="28">
         <v>1200</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="23"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="25"/>
-    </row>
-    <row r="148" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A148" s="38" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="23"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="25"/>
+    </row>
+    <row r="149" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A149" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="25"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="20"/>
-      <c r="B149" s="20"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="25"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="21"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="22" t="s">
+      <c r="E150" s="21"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="22" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="25">
-        <v>23693</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -3754,12 +3766,12 @@
       <c r="E151" s="24"/>
       <c r="F151" s="23"/>
       <c r="G151" s="25">
-        <v>32019</v>
+        <v>23693</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -3769,12 +3781,12 @@
       <c r="E152" s="24"/>
       <c r="F152" s="23"/>
       <c r="G152" s="25">
-        <v>0</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -3784,12 +3796,12 @@
       <c r="E153" s="24"/>
       <c r="F153" s="23"/>
       <c r="G153" s="25">
-        <v>602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -3799,46 +3811,50 @@
       <c r="E154" s="24"/>
       <c r="F154" s="23"/>
       <c r="G154" s="25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="25">
         <v>1200</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="32"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="34"/>
-    </row>
-    <row r="156" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="26" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="32"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="34"/>
+    </row>
+    <row r="157" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26" t="s">
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="27"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="48">
+      <c r="E157" s="27"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="48">
         <v>57514</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="16"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="18"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="16" t="s">
-        <v>98</v>
-      </c>
+    <row r="158" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="16"/>
       <c r="B158" s="19"/>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
@@ -3848,7 +3864,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -3857,8 +3873,10 @@
       <c r="F159" s="19"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="16"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
@@ -3866,335 +3884,333 @@
       <c r="F160" s="19"/>
       <c r="G160" s="18"/>
     </row>
-    <row r="161" spans="1:7" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A161" s="39" t="s">
+    <row r="161" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="16"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="1:7" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A162" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="25"/>
-    </row>
-    <row r="162" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A162" s="39" t="s">
+      <c r="B162" s="37"/>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="25"/>
+    </row>
+    <row r="163" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A163" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20" t="s">
+      <c r="B163" s="20"/>
+      <c r="C163" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D162" s="20" t="s">
+      <c r="D163" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="20" t="s">
+      <c r="E163" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20" t="s">
+      <c r="F163" s="20"/>
+      <c r="G163" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23">
-        <v>450</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="44">
-        <v>3.8</v>
-      </c>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44">
-        <f>PRODUCT(C163:E163)</f>
-        <v>1710</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="23" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B164" s="23"/>
       <c r="C164" s="23">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E164" s="44">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="F164" s="44"/>
       <c r="G164" s="44">
-        <f t="shared" ref="G164:G165" si="0">PRODUCT(C164:E164)</f>
+        <f>PRODUCT(C164:E164)</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23">
+        <v>550</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="44">
+        <v>2.5</v>
+      </c>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44">
+        <f t="shared" ref="G165:G166" si="0">PRODUCT(C165:E165)</f>
         <v>1375</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="29" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29">
+      <c r="B166" s="29"/>
+      <c r="C166" s="29">
         <v>400</v>
       </c>
-      <c r="D165" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="45">
+      <c r="D166" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="45">
         <v>7.5</v>
       </c>
-      <c r="F165" s="45"/>
-      <c r="G165" s="44">
+      <c r="F166" s="45"/>
+      <c r="G166" s="44">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="32" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="32" t="s">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="47">
-        <f>SUM(G163:G165)</f>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="47">
+        <f>SUM(G164:G166)</f>
         <v>6085</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="23"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="23"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-    </row>
-    <row r="168" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A168" s="39" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="23"/>
+      <c r="B168" s="23"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="23"/>
+    </row>
+    <row r="169" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A169" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="20" t="s">
+      <c r="B169" s="20"/>
+      <c r="C169" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D168" s="20" t="s">
+      <c r="D169" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="20" t="s">
+      <c r="E169" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20" t="s">
+      <c r="F169" s="20"/>
+      <c r="G169" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23">
-        <v>750</v>
-      </c>
-      <c r="D169" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="44">
-        <v>45</v>
-      </c>
-      <c r="F169" s="44"/>
-      <c r="G169" s="46">
-        <f>PRODUCT(C169:E169)</f>
-        <v>33750</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B170" s="23"/>
       <c r="C170" s="23">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E170" s="44">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="F170" s="44"/>
       <c r="G170" s="46">
-        <f t="shared" ref="G170:G171" si="1">PRODUCT(C170:E170)</f>
+        <f>PRODUCT(C170:E170)</f>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23">
+        <v>500</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="F171" s="44"/>
+      <c r="G171" s="46">
+        <f t="shared" ref="G171:G172" si="1">PRODUCT(C171:E171)</f>
         <v>3750</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="29" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29">
+      <c r="B172" s="29"/>
+      <c r="C172" s="29">
         <v>300</v>
       </c>
-      <c r="D171" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="45">
+      <c r="D172" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="45">
         <v>3.8</v>
       </c>
-      <c r="F171" s="45"/>
-      <c r="G171" s="46">
+      <c r="F172" s="45"/>
+      <c r="G172" s="46">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="32" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="32" t="s">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="47">
-        <f>SUM(G169:G171)</f>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="47">
+        <f>SUM(G170:G172)</f>
         <v>38640</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="23"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-    </row>
-    <row r="174" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A174" s="39" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="23"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="23"/>
+    </row>
+    <row r="175" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A175" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20" t="s">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20" t="s">
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="23" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="44">
-        <f>G166</f>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="44">
+        <f>G167</f>
         <v>6085</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="29" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
-      <c r="G176" s="45">
-        <f>G172</f>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="45">
+        <f>G173</f>
         <v>38640</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1" t="s">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="47">
-        <f>SUM(G175:G176)</f>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="47">
+        <f>SUM(G176:G177)</f>
         <v>44725</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="23"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-    </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="29"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="20" t="s">
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="29"/>
+      <c r="B180" s="29"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="29"/>
+      <c r="E180" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F179" s="20"/>
-      <c r="G179" s="29"/>
-    </row>
-    <row r="180" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="26" t="s">
+      <c r="F180" s="20"/>
+      <c r="G180" s="29"/>
+    </row>
+    <row r="181" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="1" t="s">
+      <c r="B181" s="23"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E181" s="1">
         <v>3</v>
       </c>
-      <c r="F180" s="1"/>
-      <c r="G180" s="43">
-        <f>PRODUCT(E180*G177)</f>
+      <c r="F181" s="1"/>
+      <c r="G181" s="43">
+        <f>PRODUCT(E181*G178)</f>
         <v>134175</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="16"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="18"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="16" t="s">
-        <v>104</v>
-      </c>
+    <row r="182" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="16"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
@@ -4203,7 +4219,9 @@
       <c r="G182" s="18"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="16"/>
+      <c r="A183" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="B183" s="19"/>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
@@ -4211,214 +4229,309 @@
       <c r="F183" s="19"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A184" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B184" s="37"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="25"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="16"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="18"/>
     </row>
     <row r="185" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A185" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B185" s="37"/>
+      <c r="C185" s="37"/>
+      <c r="D185" s="37"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="37"/>
+      <c r="G185" s="25"/>
+    </row>
+    <row r="186" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A186" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B185" s="20"/>
-      <c r="C185" s="20" t="s">
+      <c r="B186" s="20"/>
+      <c r="C186" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D185" s="20" t="s">
+      <c r="D186" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E185" s="20" t="s">
+      <c r="E186" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F185" s="20"/>
-      <c r="G185" s="20" t="s">
+      <c r="F186" s="20"/>
+      <c r="G186" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="50" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B186" s="50"/>
-      <c r="C186" s="50">
+      <c r="B187" s="50"/>
+      <c r="C187" s="50">
         <v>15</v>
       </c>
-      <c r="D186" s="50" t="s">
+      <c r="D187" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E186" s="51">
+      <c r="E187" s="51">
         <v>9000</v>
       </c>
-      <c r="F186" s="51"/>
-      <c r="G186" s="51">
-        <f>PRODUCT(C186:E186)</f>
+      <c r="F187" s="51"/>
+      <c r="G187" s="51">
+        <f>PRODUCT(C187:E187)</f>
         <v>135000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="32" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="32" t="s">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="49">
-        <f>SUM(G186:G186)</f>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="49">
+        <f>SUM(G187:G187)</f>
         <v>135000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="23"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="23"/>
-      <c r="E188" s="23"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-    </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="29"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="29"/>
-    </row>
-    <row r="190" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="26" t="s">
+      <c r="A189" s="23"/>
+      <c r="B189" s="23"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="23"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="29"/>
+      <c r="B190" s="29"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="29"/>
+      <c r="E190" s="20"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="29"/>
+    </row>
+    <row r="191" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="1" t="s">
+      <c r="B191" s="23"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="43">
-        <f>G187</f>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="43">
+        <f>G188</f>
         <v>135000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="16"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="18"/>
-    </row>
-    <row r="192" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A192" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="25"/>
+    <row r="192" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="16"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="18"/>
     </row>
     <row r="193" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A193" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B193" s="37"/>
+      <c r="C193" s="37"/>
+      <c r="D193" s="37"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="25"/>
+    </row>
+    <row r="194" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A194" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B193" s="20"/>
-      <c r="C193" s="20" t="s">
+      <c r="B194" s="20"/>
+      <c r="C194" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D193" s="20" t="s">
+      <c r="D194" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E193" s="20" t="s">
+      <c r="E194" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20" t="s">
+      <c r="F194" s="20"/>
+      <c r="G194" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="50" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B194" s="50"/>
-      <c r="C194" s="50">
+      <c r="B195" s="50"/>
+      <c r="C195" s="50">
         <v>15</v>
       </c>
-      <c r="D194" s="50" t="s">
+      <c r="D195" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E194" s="51">
+      <c r="E195" s="51">
         <v>270</v>
       </c>
-      <c r="F194" s="51"/>
-      <c r="G194" s="51">
-        <f>PRODUCT(C194:E194)</f>
+      <c r="F195" s="51"/>
+      <c r="G195" s="51">
+        <f>PRODUCT(C195:E195)</f>
         <v>4050</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="32" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="32" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="49">
-        <f>SUM(G194:G194)</f>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="49">
+        <f>SUM(G195:G195)</f>
         <v>4050</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="23"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="23"/>
-    </row>
-    <row r="197" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="26" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="23"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+    </row>
+    <row r="198" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B197" s="52"/>
-      <c r="C197" s="52"/>
-      <c r="D197" s="26" t="s">
+      <c r="B198" s="52"/>
+      <c r="C198" s="52"/>
+      <c r="D198" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="26"/>
-      <c r="F197" s="26"/>
-      <c r="G197" s="53">
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="53">
         <v>4050</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="16"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="18"/>
-    </row>
+    <row r="199" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="16"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="18"/>
+    </row>
+    <row r="200" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A200" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="37"/>
+      <c r="G200" s="25"/>
+    </row>
+    <row r="201" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A201" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202" s="50"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" s="51"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="49">
+        <f>SUM(G202:G202)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="23"/>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+    </row>
+    <row r="205" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B205" s="52"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26"/>
+      <c r="G205" s="53">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="16" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
@@ -4433,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E520010-E0A0-41E5-8C55-A6A4FD92428D}">
-  <dimension ref="A1:U178"/>
+  <dimension ref="A1:U179"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4498,8 +4611,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="67">
-        <f>SUM(B28)</f>
-        <v>421898.7</v>
+        <f>SUM(B29)</f>
+        <v>441898.7</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="56"/>
@@ -4766,7 +4879,7 @@
         <v>144</v>
       </c>
       <c r="B23" s="25">
-        <f>SUM(G33:G38,G40:G46,G50:G52,G54:G58)</f>
+        <f>SUM(G34:G39,G41:G47,G51:G53,G55:G59)</f>
         <v>76448.7</v>
       </c>
       <c r="C23" s="25"/>
@@ -4786,7 +4899,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="25">
-        <f>SUM(G60:G71)</f>
+        <f>SUM(G61:G72)</f>
         <v>206400</v>
       </c>
       <c r="C24" s="25"/>
@@ -4840,229 +4953,225 @@
       <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="25">
+        <f>G78</f>
+        <v>20000</v>
+      </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <f>H78</f>
+        <v>20000</v>
+      </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="G27" s="25">
+        <f>SUM(B27-D27)</f>
+        <v>0</v>
+      </c>
       <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="25">
-        <f>SUM(B23:B26)</f>
-        <v>421898.7</v>
-      </c>
+      <c r="A28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="25">
-        <v>330739</v>
-      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="25">
-        <f>SUM(B28-D28)</f>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="25">
+        <f>SUM(B23:B27)</f>
+        <v>441898.7</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25">
+        <f>SUM(D23:D27)</f>
+        <v>350739</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25">
+        <f>SUM(B29-D29)</f>
         <v>91159.700000000012</v>
       </c>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="58"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="57" t="s">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="16"/>
+    </row>
+    <row r="31" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="58"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="68" t="s">
+      <c r="D31" s="57"/>
+      <c r="E31" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68" t="s">
+      <c r="F31" s="68"/>
+      <c r="G31" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
+      <c r="H31" s="68"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F32" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H32" s="22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="60" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="62"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50">
-        <v>1</v>
-      </c>
-      <c r="D33" s="50">
-        <v>1</v>
-      </c>
-      <c r="E33" s="59">
-        <v>27900</v>
-      </c>
-      <c r="F33" s="59">
-        <f>SUM(H33/C33)</f>
-        <v>5940</v>
-      </c>
-      <c r="G33" s="59">
-        <f t="shared" ref="G33:G38" si="0">SUM(E33*C33)</f>
-        <v>27900</v>
-      </c>
-      <c r="H33" s="59">
-        <v>5940</v>
-      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50">
+        <v>1</v>
+      </c>
+      <c r="D34" s="50">
+        <v>1</v>
+      </c>
+      <c r="E34" s="59">
+        <v>27900</v>
+      </c>
+      <c r="F34" s="59">
+        <f>SUM(H34/C34)</f>
+        <v>5940</v>
+      </c>
+      <c r="G34" s="59">
+        <f t="shared" ref="G34:G39" si="0">SUM(E34*C34)</f>
+        <v>27900</v>
+      </c>
+      <c r="H34" s="59">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50">
         <v>16</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D35" s="50">
         <v>9</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E35" s="59">
         <v>130</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F35" s="59">
         <v>140</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G35" s="59">
         <f t="shared" si="0"/>
         <v>2080</v>
       </c>
-      <c r="H34" s="59">
+      <c r="H35" s="59">
         <v>1260</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="50" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50">
         <v>190</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D36" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E36" s="59">
         <f>SUM((59+59+73+88)/4)</f>
         <v>69.75</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F36" s="59">
         <v>59</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G36" s="59">
         <f t="shared" si="0"/>
         <v>13252.5</v>
       </c>
-      <c r="H35" s="59">
+      <c r="H36" s="59">
         <f>SUM(708+1062)</f>
         <v>1770</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="50" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50">
         <v>24</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D37" s="50">
         <v>27</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E37" s="59">
         <f>SUM((98+98+123)/3)</f>
         <v>106.33333333333333</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F37" s="59">
         <v>106.33</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G37" s="59">
         <f t="shared" si="0"/>
         <v>2552</v>
       </c>
-      <c r="H36" s="59">
+      <c r="H37" s="59">
         <f>SUM(1764+1098)</f>
         <v>2862</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50">
-        <v>48</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="59">
-        <f>SUM((88+88+110)/3)</f>
-        <v>95.333333333333329</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" s="59">
-        <f t="shared" si="0"/>
-        <v>4576</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="50"/>
       <c r="C38" s="50">
@@ -5072,128 +5181,129 @@
         <v>37</v>
       </c>
       <c r="E38" s="59">
+        <f>SUM((88+88+110)/3)</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="59">
+        <f t="shared" si="0"/>
+        <v>4576</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50">
+        <v>48</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="59">
         <f>SUM((51+51+63)/3)</f>
         <v>55</v>
       </c>
-      <c r="F38" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="59">
+      <c r="F39" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="59">
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
-      <c r="H38" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="60" t="s">
+      <c r="H39" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50">
-        <v>1</v>
-      </c>
-      <c r="D40" s="50">
-        <v>1</v>
-      </c>
-      <c r="E40" s="59">
-        <v>2500</v>
-      </c>
-      <c r="F40" s="59">
-        <f>SUM(H40/C40)</f>
-        <v>2500</v>
-      </c>
-      <c r="G40" s="59">
-        <f t="shared" ref="G40:G46" si="1">SUM(E40*C40)</f>
-        <v>2500</v>
-      </c>
-      <c r="H40" s="59">
-        <v>2500</v>
-      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="50">
         <v>1</v>
       </c>
       <c r="D41" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="59">
-        <v>1750</v>
+        <v>2500</v>
       </c>
       <c r="F41" s="59">
-        <v>1750</v>
+        <f>SUM(H41/C41)</f>
+        <v>2500</v>
       </c>
       <c r="G41" s="59">
-        <f t="shared" si="1"/>
-        <v>1750</v>
+        <f t="shared" ref="G41:G47" si="1">SUM(E41*C41)</f>
+        <v>2500</v>
       </c>
       <c r="H41" s="59">
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42" s="50"/>
       <c r="C42" s="50">
         <v>1</v>
       </c>
       <c r="D42" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="59">
-        <v>275</v>
-      </c>
-      <c r="F42" s="59" t="s">
-        <v>37</v>
+        <v>1750</v>
+      </c>
+      <c r="F42" s="59">
+        <v>1750</v>
       </c>
       <c r="G42" s="59">
         <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="H42" s="59" t="s">
-        <v>37</v>
+        <v>1750</v>
+      </c>
+      <c r="H42" s="59">
+        <v>3500</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="50"/>
       <c r="C43" s="50">
-        <v>2</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="D43" s="50">
+        <v>3</v>
       </c>
       <c r="E43" s="59">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="F43" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="59">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="H43" s="59" t="s">
         <v>37</v>
@@ -5201,123 +5311,124 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="50"/>
       <c r="C44" s="50">
         <v>2</v>
       </c>
-      <c r="D44" s="50">
-        <v>3</v>
+      <c r="D44" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="E44" s="59">
-        <v>500</v>
-      </c>
-      <c r="F44" s="59">
-        <v>500</v>
+        <v>150</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="G44" s="59">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="H44" s="59">
-        <v>1500</v>
+        <v>300</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="50"/>
       <c r="C45" s="50">
         <v>2</v>
       </c>
-      <c r="D45" s="50" t="s">
-        <v>37</v>
+      <c r="D45" s="50">
+        <v>3</v>
       </c>
       <c r="E45" s="59">
-        <v>50</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>37</v>
+        <v>500</v>
+      </c>
+      <c r="F45" s="59">
+        <v>500</v>
       </c>
       <c r="G45" s="59">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H45" s="59" t="s">
-        <v>37</v>
+        <v>1000</v>
+      </c>
+      <c r="H45" s="59">
+        <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="50">
         <v>2</v>
       </c>
-      <c r="D46" s="50">
-        <v>2</v>
+      <c r="D46" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="E46" s="59">
-        <v>400</v>
-      </c>
-      <c r="F46" s="59">
-        <f>SUM(H46/C46)</f>
-        <v>400</v>
+        <v>50</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>37</v>
       </c>
       <c r="G46" s="59">
         <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50">
+        <v>2</v>
+      </c>
+      <c r="D47" s="50">
+        <v>2</v>
+      </c>
+      <c r="E47" s="59">
+        <v>400</v>
+      </c>
+      <c r="F47" s="59">
+        <f>SUM(H47/C47)</f>
+        <v>400</v>
+      </c>
+      <c r="G47" s="59">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H46" s="59">
+      <c r="H47" s="59">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="60" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="62"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50">
-        <v>800</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G48" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="59" t="s">
-        <v>37</v>
-      </c>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="50" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B49" s="50"/>
       <c r="C49" s="50">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="D49" s="50" t="s">
         <v>37</v>
@@ -5337,278 +5448,276 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="50" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="B50" s="50"/>
       <c r="C50" s="50">
-        <v>250</v>
-      </c>
-      <c r="D50" s="50">
-        <v>190</v>
-      </c>
-      <c r="E50" s="59">
-        <v>30</v>
-      </c>
-      <c r="F50" s="59">
-        <v>40</v>
-      </c>
-      <c r="G50" s="59">
-        <f>SUM(E50*C50)</f>
-        <v>7500</v>
-      </c>
-      <c r="H50" s="59">
-        <v>7600</v>
+        <v>10</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B51" s="50"/>
       <c r="C51" s="50">
-        <v>100</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>141</v>
+        <v>250</v>
+      </c>
+      <c r="D51" s="50">
+        <v>190</v>
       </c>
       <c r="E51" s="59">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F51" s="59">
         <v>40</v>
       </c>
       <c r="G51" s="59">
-        <f t="shared" ref="G51:G52" si="2">SUM(E51*C51)</f>
-        <v>2000</v>
+        <f>SUM(E51*C51)</f>
+        <v>7500</v>
       </c>
       <c r="H51" s="59">
-        <v>1200</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B52" s="50"/>
       <c r="C52" s="50">
+        <v>100</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="59">
+        <v>20</v>
+      </c>
+      <c r="F52" s="59">
+        <v>40</v>
+      </c>
+      <c r="G52" s="59">
+        <f t="shared" ref="G52:G53" si="2">SUM(E52*C52)</f>
+        <v>2000</v>
+      </c>
+      <c r="H52" s="59">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50">
         <v>400</v>
       </c>
-      <c r="D52" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="59">
+      <c r="D53" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="59">
         <v>12.5</v>
       </c>
-      <c r="F52" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="59">
+      <c r="F53" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="59">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H52" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="60" t="s">
+      <c r="H53" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="62"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="59">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="F54" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="59">
-        <v>300</v>
-      </c>
-      <c r="H54" s="59">
-        <v>2500</v>
-      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="62"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B55" s="50"/>
       <c r="C55" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="59" t="s">
-        <v>148</v>
+      <c r="E55" s="59">
+        <v>0.20200000000000001</v>
       </c>
       <c r="F55" s="59" t="s">
         <v>34</v>
       </c>
       <c r="G55" s="59">
-        <v>133.19999999999999</v>
+        <v>300</v>
       </c>
       <c r="H55" s="59">
-        <v>100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="50"/>
-      <c r="C56" s="50">
-        <v>1</v>
-      </c>
-      <c r="D56" s="50">
-        <v>1</v>
-      </c>
-      <c r="E56" s="59">
-        <v>660</v>
-      </c>
-      <c r="F56" s="59">
-        <v>300</v>
+      <c r="C56" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>34</v>
       </c>
       <c r="G56" s="59">
-        <v>660</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="H56" s="59">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="59" t="s">
-        <v>34</v>
+      <c r="C57" s="50">
+        <v>1</v>
+      </c>
+      <c r="D57" s="50">
+        <v>1</v>
+      </c>
+      <c r="E57" s="59">
+        <v>660</v>
+      </c>
+      <c r="F57" s="59">
+        <v>300</v>
       </c>
       <c r="G57" s="59">
-        <v>470</v>
+        <v>660</v>
       </c>
       <c r="H57" s="59">
-        <v>595</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="59">
+        <v>470</v>
+      </c>
+      <c r="H58" s="59">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50">
+      <c r="B59" s="50"/>
+      <c r="C59" s="50">
         <v>1</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D59" s="50">
         <v>1</v>
       </c>
-      <c r="E58" s="59">
+      <c r="E59" s="59">
         <v>660</v>
       </c>
-      <c r="F58" s="59">
+      <c r="F59" s="59">
         <v>300</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G59" s="59">
         <v>660</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H59" s="59">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="60" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="62"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50">
-        <v>1500</v>
-      </c>
-      <c r="D60" s="50">
-        <v>1500</v>
-      </c>
-      <c r="E60" s="59">
-        <v>5</v>
-      </c>
-      <c r="F60" s="59">
-        <v>3.8</v>
-      </c>
-      <c r="G60" s="59">
-        <f>SUM(E60*C60)</f>
-        <v>7500</v>
-      </c>
-      <c r="H60" s="59">
-        <f>SUM(F60*D60)</f>
-        <v>5700</v>
-      </c>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="62"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="50">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="D61" s="50">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="59">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="G61" s="59">
         <f>SUM(E61*C61)</f>
-        <v>4950</v>
+        <v>7500</v>
       </c>
       <c r="H61" s="59">
         <f>SUM(F61*D61)</f>
-        <v>4125</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B62" s="50"/>
       <c r="C62" s="50">
@@ -5618,143 +5727,144 @@
         <v>1650</v>
       </c>
       <c r="E62" s="59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F62" s="59">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="G62" s="59">
-        <f t="shared" ref="G62:G63" si="3">SUM(E62*C62)</f>
-        <v>14850</v>
+        <f>SUM(E62*C62)</f>
+        <v>4950</v>
       </c>
       <c r="H62" s="59">
-        <f t="shared" ref="H62:H63" si="4">SUM(F62*D62)</f>
-        <v>12375</v>
+        <f>SUM(F62*D62)</f>
+        <v>4125</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B63" s="50"/>
       <c r="C63" s="50">
+        <v>1650</v>
+      </c>
+      <c r="D63" s="50">
+        <v>1650</v>
+      </c>
+      <c r="E63" s="59">
+        <v>9</v>
+      </c>
+      <c r="F63" s="59">
+        <v>7.5</v>
+      </c>
+      <c r="G63" s="59">
+        <f t="shared" ref="G63:G64" si="3">SUM(E63*C63)</f>
+        <v>14850</v>
+      </c>
+      <c r="H63" s="59">
+        <f t="shared" ref="H63:H64" si="4">SUM(F63*D63)</f>
+        <v>12375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50">
         <v>2250</v>
       </c>
-      <c r="D63" s="50">
+      <c r="D64" s="50">
         <v>2250</v>
       </c>
-      <c r="E63" s="59">
+      <c r="E64" s="59">
         <v>55</v>
       </c>
-      <c r="F63" s="59">
+      <c r="F64" s="59">
         <v>45</v>
       </c>
-      <c r="G63" s="59">
+      <c r="G64" s="59">
         <f t="shared" si="3"/>
         <v>123750</v>
       </c>
-      <c r="H63" s="59">
+      <c r="H64" s="59">
         <f t="shared" si="4"/>
         <v>101250</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50">
-        <v>900</v>
-      </c>
-      <c r="D64" s="50">
-        <v>900</v>
-      </c>
-      <c r="E64" s="59">
-        <v>5</v>
-      </c>
-      <c r="F64" s="59">
-        <v>3.8</v>
-      </c>
-      <c r="G64" s="59">
-        <f>SUM(E64*C64)</f>
-        <v>4500</v>
-      </c>
-      <c r="H64" s="59">
-        <f>SUM(F64*D64)</f>
-        <v>3420</v>
-      </c>
-    </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="50"/>
       <c r="C65" s="50">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="D65" s="50">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E65" s="59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F65" s="59">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="G65" s="59">
-        <f t="shared" ref="G65" si="5">SUM(E65*C65)</f>
-        <v>13500</v>
+        <f>SUM(E65*C65)</f>
+        <v>4500</v>
       </c>
       <c r="H65" s="59">
-        <f t="shared" ref="H65" si="6">SUM(F65*D65)</f>
-        <v>11250</v>
+        <f>SUM(F65*D65)</f>
+        <v>3420</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B66" s="50"/>
       <c r="C66" s="50">
-        <v>360</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>37</v>
+        <v>1500</v>
+      </c>
+      <c r="D66" s="50">
+        <v>1500</v>
       </c>
       <c r="E66" s="59">
-        <v>45</v>
-      </c>
-      <c r="F66" s="59" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="F66" s="59">
+        <v>7.5</v>
       </c>
       <c r="G66" s="59">
-        <f t="shared" ref="G66:G68" si="7">SUM(E66*C66)</f>
-        <v>16200</v>
-      </c>
-      <c r="H66" s="59" t="s">
-        <v>37</v>
+        <f t="shared" ref="G66" si="5">SUM(E66*C66)</f>
+        <v>13500</v>
+      </c>
+      <c r="H66" s="59">
+        <f t="shared" ref="H66" si="6">SUM(F66*D66)</f>
+        <v>11250</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="50"/>
       <c r="C67" s="50">
-        <v>2250</v>
+        <v>360</v>
       </c>
       <c r="D67" s="50" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="59">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F67" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G67" s="59">
-        <f t="shared" si="7"/>
-        <v>4500</v>
+        <f t="shared" ref="G67:G69" si="7">SUM(E67*C67)</f>
+        <v>16200</v>
       </c>
       <c r="H67" s="59" t="s">
         <v>37</v>
@@ -5762,7 +5872,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" s="50"/>
       <c r="C68" s="50">
@@ -5772,14 +5882,14 @@
         <v>37</v>
       </c>
       <c r="E68" s="59">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F68" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G68" s="59">
         <f t="shared" si="7"/>
-        <v>4275</v>
+        <v>4500</v>
       </c>
       <c r="H68" s="59" t="s">
         <v>37</v>
@@ -5787,7 +5897,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B69" s="50"/>
       <c r="C69" s="50">
@@ -5797,14 +5907,14 @@
         <v>37</v>
       </c>
       <c r="E69" s="59">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="F69" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G69" s="59">
-        <f t="shared" ref="G69:G70" si="8">SUM(E69*C69)</f>
-        <v>1800</v>
+        <f t="shared" si="7"/>
+        <v>4275</v>
       </c>
       <c r="H69" s="59" t="s">
         <v>37</v>
@@ -5812,7 +5922,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="50"/>
       <c r="C70" s="50">
@@ -5822,14 +5932,14 @@
         <v>37</v>
       </c>
       <c r="E70" s="59">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="F70" s="59" t="s">
         <v>37</v>
       </c>
       <c r="G70" s="59">
-        <f t="shared" si="8"/>
-        <v>3825</v>
+        <f t="shared" ref="G70:G71" si="8">SUM(E70*C70)</f>
+        <v>1800</v>
       </c>
       <c r="H70" s="59" t="s">
         <v>37</v>
@@ -5837,7 +5947,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B71" s="50"/>
       <c r="C71" s="50">
@@ -5847,102 +5957,155 @@
         <v>37</v>
       </c>
       <c r="E71" s="59">
+        <v>1.7</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="59">
+        <f t="shared" si="8"/>
+        <v>3825</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50">
+        <v>2250</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="59">
         <v>3</v>
       </c>
-      <c r="F71" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="G71" s="59">
-        <f t="shared" ref="G71" si="9">SUM(E71*C71)</f>
+      <c r="F72" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" s="59">
+        <f t="shared" ref="G72" si="9">SUM(E72*C72)</f>
         <v>6750</v>
       </c>
-      <c r="H71" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="60" t="s">
+      <c r="H72" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="62"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="50" t="s">
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="62"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50">
+      <c r="B74" s="50"/>
+      <c r="C74" s="50">
         <v>15</v>
       </c>
-      <c r="D73" s="50">
+      <c r="D74" s="50">
         <v>15</v>
       </c>
-      <c r="E73" s="59">
+      <c r="E74" s="59">
         <v>9000</v>
       </c>
-      <c r="F73" s="59">
+      <c r="F74" s="59">
         <v>9000</v>
       </c>
-      <c r="G73" s="59">
-        <f>SUM(E73*C73)</f>
+      <c r="G74" s="59">
+        <f>SUM(E74*C74)</f>
         <v>135000</v>
       </c>
-      <c r="H73" s="59">
-        <f>SUM(F73*D73)</f>
+      <c r="H74" s="59">
+        <f>SUM(F74*D74)</f>
         <v>135000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="60" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="62"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="50" t="s">
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="62"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50">
+      <c r="B76" s="50"/>
+      <c r="C76" s="50">
         <v>15</v>
       </c>
-      <c r="D75" s="50">
+      <c r="D76" s="50">
         <v>15</v>
       </c>
-      <c r="E75" s="59">
+      <c r="E76" s="59">
         <v>270</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F76" s="59">
         <v>270</v>
       </c>
-      <c r="G75" s="59">
-        <f>SUM(E75*C75)</f>
+      <c r="G76" s="59">
+        <f>SUM(E76*C76)</f>
         <v>4050</v>
       </c>
-      <c r="H75" s="59">
-        <f>SUM(F75*D75)</f>
+      <c r="H76" s="59">
+        <f>SUM(F76*D76)</f>
         <v>4050</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="62"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="59">
+        <v>20000</v>
+      </c>
+      <c r="F78" s="59">
+        <v>20000</v>
+      </c>
+      <c r="G78" s="59">
+        <v>20000</v>
+      </c>
+      <c r="H78" s="59">
+        <v>20000</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
@@ -5961,7 +6124,6 @@
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="7"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5970,6 +6132,7 @@
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -6002,7 +6165,6 @@
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="6"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -6011,6 +6173,7 @@
       <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="6"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -6066,27 +6229,27 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B100" s="2"/>
@@ -6136,60 +6299,56 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="107" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-    </row>
-    <row r="113" spans="9:21" x14ac:dyDescent="0.35">
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
-      <c r="T113" s="6"/>
-      <c r="U113" s="6"/>
-    </row>
-    <row r="125" spans="9:21" x14ac:dyDescent="0.35">
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="108" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+    </row>
+    <row r="114" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+    </row>
+    <row r="126" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
@@ -6203,34 +6362,46 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
-    <row r="146" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.35">
-      <c r="H155" s="6"/>
-    </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+    <row r="137" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="2"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H156" s="6"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H177" s="7"/>
+    <row r="170" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H179" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
